--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna1-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna1-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efna1</t>
   </si>
   <si>
     <t>Epha4</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.60223533333333</v>
+        <v>30.194115</v>
       </c>
       <c r="H2">
-        <v>70.80670599999999</v>
+        <v>90.582345</v>
       </c>
       <c r="I2">
-        <v>0.8824726436021215</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J2">
-        <v>0.8824726436021214</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N2">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O2">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P2">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q2">
-        <v>185.0414620740391</v>
+        <v>257.87467093381</v>
       </c>
       <c r="R2">
-        <v>1665.373158666352</v>
+        <v>2320.87203840429</v>
       </c>
       <c r="S2">
-        <v>0.3468797073096246</v>
+        <v>0.3751084068438869</v>
       </c>
       <c r="T2">
-        <v>0.3468797073096246</v>
+        <v>0.3751084068438869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.60223533333333</v>
+        <v>30.194115</v>
       </c>
       <c r="H3">
-        <v>70.80670599999999</v>
+        <v>90.582345</v>
       </c>
       <c r="I3">
-        <v>0.8824726436021215</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J3">
-        <v>0.8824726436021214</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>34.723655</v>
       </c>
       <c r="O3">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P3">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q3">
-        <v>273.1852923144922</v>
+        <v>349.483344096775</v>
       </c>
       <c r="R3">
-        <v>2458.66763083043</v>
+        <v>3145.350096870975</v>
       </c>
       <c r="S3">
-        <v>0.5121145994913766</v>
+        <v>0.5083637720133584</v>
       </c>
       <c r="T3">
-        <v>0.5121145994913766</v>
+        <v>0.5083637720133583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.60223533333333</v>
+        <v>30.194115</v>
       </c>
       <c r="H4">
-        <v>70.80670599999999</v>
+        <v>90.582345</v>
       </c>
       <c r="I4">
-        <v>0.8824726436021215</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J4">
-        <v>0.8824726436021214</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N4">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O4">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P4">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q4">
-        <v>11.46647730669889</v>
+        <v>0.80443161183</v>
       </c>
       <c r="R4">
-        <v>103.19829576029</v>
+        <v>7.23988450647</v>
       </c>
       <c r="S4">
-        <v>0.02149511924213333</v>
+        <v>0.001170138421256048</v>
       </c>
       <c r="T4">
-        <v>0.02149511924213333</v>
+        <v>0.001170138421256048</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.60223533333333</v>
+        <v>30.194115</v>
       </c>
       <c r="H5">
-        <v>70.80670599999999</v>
+        <v>90.582345</v>
       </c>
       <c r="I5">
-        <v>0.8824726436021215</v>
+        <v>0.9018420607989291</v>
       </c>
       <c r="J5">
-        <v>0.8824726436021214</v>
+        <v>0.901842060798929</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N5">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O5">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P5">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q5">
-        <v>1.057938729169555</v>
+        <v>11.82425698692</v>
       </c>
       <c r="R5">
-        <v>9.521448562525999</v>
+        <v>106.41831288228</v>
       </c>
       <c r="S5">
-        <v>0.001983217558986948</v>
+        <v>0.01719974352042784</v>
       </c>
       <c r="T5">
-        <v>0.001983217558986947</v>
+        <v>0.01719974352042784</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +794,10 @@
         <v>7.899606</v>
       </c>
       <c r="I6">
-        <v>0.09845375648791208</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J6">
-        <v>0.09845375648791205</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N6">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O6">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P6">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q6">
-        <v>20.644296658128</v>
+        <v>22.489021428588</v>
       </c>
       <c r="R6">
-        <v>185.798669923152</v>
+        <v>202.401192857292</v>
       </c>
       <c r="S6">
-        <v>0.03869990812934238</v>
+        <v>0.03271287160157325</v>
       </c>
       <c r="T6">
-        <v>0.03869990812934236</v>
+        <v>0.03271287160157323</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +856,10 @@
         <v>7.899606</v>
       </c>
       <c r="I7">
-        <v>0.09845375648791208</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J7">
-        <v>0.09845375648791205</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +874,10 @@
         <v>34.723655</v>
       </c>
       <c r="O7">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P7">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q7">
         <v>30.47813259777</v>
@@ -883,10 +886,10 @@
         <v>274.30319337993</v>
       </c>
       <c r="S7">
-        <v>0.05713446919603458</v>
+        <v>0.04433395385799913</v>
       </c>
       <c r="T7">
-        <v>0.05713446919603457</v>
+        <v>0.04433395385799911</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +918,40 @@
         <v>7.899606</v>
       </c>
       <c r="I8">
-        <v>0.09845375648791208</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J8">
-        <v>0.09845375648791205</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N8">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O8">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P8">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q8">
-        <v>1.27926658431</v>
+        <v>0.070153767684</v>
       </c>
       <c r="R8">
-        <v>11.51339925879</v>
+        <v>0.631383909156</v>
       </c>
       <c r="S8">
-        <v>0.002398119931406948</v>
+        <v>0.0001020467343099233</v>
       </c>
       <c r="T8">
-        <v>0.002398119931406948</v>
+        <v>0.0001020467343099232</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +980,40 @@
         <v>7.899606</v>
       </c>
       <c r="I9">
-        <v>0.09845375648791208</v>
+        <v>0.07864884657754871</v>
       </c>
       <c r="J9">
-        <v>0.09845375648791205</v>
+        <v>0.07864884657754868</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N9">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O9">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P9">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q9">
-        <v>0.118029768714</v>
+        <v>1.031182968816</v>
       </c>
       <c r="R9">
-        <v>1.062267918426</v>
+        <v>9.280646719344</v>
       </c>
       <c r="S9">
-        <v>0.0002212592311281738</v>
+        <v>0.001499974383666408</v>
       </c>
       <c r="T9">
-        <v>0.0002212592311281737</v>
+        <v>0.001499974383666407</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5101343333333334</v>
+        <v>0.5479553333333333</v>
       </c>
       <c r="H10">
-        <v>1.530403</v>
+        <v>1.643866</v>
       </c>
       <c r="I10">
-        <v>0.01907359990996641</v>
+        <v>0.01636640673320273</v>
       </c>
       <c r="J10">
-        <v>0.0190735999099664</v>
+        <v>0.01636640673320272</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N10">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O10">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P10">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q10">
-        <v>3.999451812975111</v>
+        <v>4.679845766956888</v>
       </c>
       <c r="R10">
-        <v>35.995066316776</v>
+        <v>42.118611902612</v>
       </c>
       <c r="S10">
-        <v>0.007497393604297475</v>
+        <v>0.006807374619467325</v>
       </c>
       <c r="T10">
-        <v>0.007497393604297471</v>
+        <v>0.006807374619467324</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1083,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5101343333333334</v>
+        <v>0.5479553333333333</v>
       </c>
       <c r="H11">
-        <v>1.530403</v>
+        <v>1.643866</v>
       </c>
       <c r="I11">
-        <v>0.01907359990996641</v>
+        <v>0.01636640673320273</v>
       </c>
       <c r="J11">
-        <v>0.0190735999099664</v>
+        <v>0.01636640673320272</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1122,22 @@
         <v>34.723655</v>
       </c>
       <c r="O11">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P11">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q11">
-        <v>5.904576198107223</v>
+        <v>6.342337316692222</v>
       </c>
       <c r="R11">
-        <v>53.141185782965</v>
+        <v>57.08103585023</v>
       </c>
       <c r="S11">
-        <v>0.01106874989221221</v>
+        <v>0.009225660038327681</v>
       </c>
       <c r="T11">
-        <v>0.0110687498922122</v>
+        <v>0.00922566003832768</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5101343333333334</v>
+        <v>0.5479553333333333</v>
       </c>
       <c r="H12">
-        <v>1.530403</v>
+        <v>1.643866</v>
       </c>
       <c r="I12">
-        <v>0.01907359990996641</v>
+        <v>0.01636640673320273</v>
       </c>
       <c r="J12">
-        <v>0.0190735999099664</v>
+        <v>0.01636640673320272</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N12">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O12">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P12">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q12">
-        <v>0.2478343120438889</v>
+        <v>0.01459862599066667</v>
       </c>
       <c r="R12">
-        <v>2.230508808395</v>
+        <v>0.131387633916</v>
       </c>
       <c r="S12">
-        <v>0.0004645915172712396</v>
+        <v>2.123538274479971E-05</v>
       </c>
       <c r="T12">
-        <v>0.0004645915172712394</v>
+        <v>2.123538274479971E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5479553333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.643866</v>
+      </c>
+      <c r="I13">
+        <v>0.01636640673320273</v>
+      </c>
+      <c r="J13">
+        <v>0.01636640673320272</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.391608</v>
+      </c>
+      <c r="N13">
+        <v>1.174824</v>
+      </c>
+      <c r="O13">
+        <v>0.01907179124600912</v>
+      </c>
+      <c r="P13">
+        <v>0.01907179124600912</v>
+      </c>
+      <c r="Q13">
+        <v>0.214583692176</v>
+      </c>
+      <c r="R13">
+        <v>1.931253229584</v>
+      </c>
+      <c r="S13">
+        <v>0.0003121366926629205</v>
+      </c>
+      <c r="T13">
+        <v>0.0003121366926629204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.5101343333333334</v>
-      </c>
-      <c r="H13">
-        <v>1.530403</v>
-      </c>
-      <c r="I13">
-        <v>0.01907359990996641</v>
-      </c>
-      <c r="J13">
-        <v>0.0190735999099664</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.04482366666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.134471</v>
-      </c>
-      <c r="O13">
-        <v>0.002247341686300608</v>
-      </c>
-      <c r="P13">
-        <v>0.002247341686300608</v>
-      </c>
-      <c r="Q13">
-        <v>0.02286609131255556</v>
-      </c>
-      <c r="R13">
-        <v>0.205794821813</v>
-      </c>
-      <c r="S13">
-        <v>4.286489618548703E-05</v>
-      </c>
-      <c r="T13">
-        <v>4.286489618548702E-05</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.315656</v>
+      </c>
+      <c r="I14">
+        <v>0.00314268589031943</v>
+      </c>
+      <c r="J14">
+        <v>0.003142685890319429</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.540560666666666</v>
+      </c>
+      <c r="N14">
+        <v>25.621682</v>
+      </c>
+      <c r="O14">
+        <v>0.4159358086620884</v>
+      </c>
+      <c r="P14">
+        <v>0.4159358086620884</v>
+      </c>
+      <c r="Q14">
+        <v>0.8986264059324444</v>
+      </c>
+      <c r="R14">
+        <v>8.087637653391999</v>
+      </c>
+      <c r="S14">
+        <v>0.001307155597160947</v>
+      </c>
+      <c r="T14">
+        <v>0.001307155597160947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.315656</v>
+      </c>
+      <c r="I15">
+        <v>0.00314268589031943</v>
+      </c>
+      <c r="J15">
+        <v>0.003142685890319429</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.57455166666667</v>
+      </c>
+      <c r="N15">
+        <v>34.723655</v>
+      </c>
+      <c r="O15">
+        <v>0.563694901924408</v>
+      </c>
+      <c r="P15">
+        <v>0.563694901924408</v>
+      </c>
+      <c r="Q15">
+        <v>1.217858893631111</v>
+      </c>
+      <c r="R15">
+        <v>10.96073004268</v>
+      </c>
+      <c r="S15">
+        <v>0.001771516014722832</v>
+      </c>
+      <c r="T15">
+        <v>0.001771516014722832</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.315656</v>
+      </c>
+      <c r="I16">
+        <v>0.00314268589031943</v>
+      </c>
+      <c r="J16">
+        <v>0.003142685890319429</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.026642</v>
+      </c>
+      <c r="N16">
+        <v>0.079926</v>
+      </c>
+      <c r="O16">
+        <v>0.001297498167494471</v>
+      </c>
+      <c r="P16">
+        <v>0.001297498167494471</v>
+      </c>
+      <c r="Q16">
+        <v>0.002803235717333333</v>
+      </c>
+      <c r="R16">
+        <v>0.025229121456</v>
+      </c>
+      <c r="S16">
+        <v>4.077629183700192E-06</v>
+      </c>
+      <c r="T16">
+        <v>4.077629183700191E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1052186666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.315656</v>
+      </c>
+      <c r="I17">
+        <v>0.00314268589031943</v>
+      </c>
+      <c r="J17">
+        <v>0.003142685890319429</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.391608</v>
+      </c>
+      <c r="N17">
+        <v>1.174824</v>
+      </c>
+      <c r="O17">
+        <v>0.01907179124600912</v>
+      </c>
+      <c r="P17">
+        <v>0.01907179124600912</v>
+      </c>
+      <c r="Q17">
+        <v>0.041204471616</v>
+      </c>
+      <c r="R17">
+        <v>0.370840244544</v>
+      </c>
+      <c r="S17">
+        <v>5.993664925195048E-05</v>
+      </c>
+      <c r="T17">
+        <v>5.993664925195046E-05</v>
       </c>
     </row>
   </sheetData>
